--- a/tm-driver/ix-evolution/src/main/resources/init/oob/role/ADMIN.DEVELOPER/falcon.ui.app.xlsx
+++ b/tm-driver/ix-evolution/src/main/resources/init/oob/role/ADMIN.DEVELOPER/falcon.ui.app.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="41120" yWindow="-3460" windowWidth="47820" windowHeight="27100"/>
+    <workbookView xWindow="64500" yWindow="3840" windowWidth="47820" windowHeight="27100"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="DATA-PERM" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>操作配置读取</t>
+  </si>
+  <si>
+    <t>1cfac107-e42e-4097-b530-3c0f0ccccd54</t>
+  </si>
+  <si>
+    <t>组件访问器</t>
   </si>
   <si>
     <t>S_VIEW</t>
@@ -615,7 +621,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11" customHeight="1"/>
@@ -689,15 +695,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -710,72 +727,72 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
